--- a/Mifos Automation Excels/Client/4707-SUBMITSAVINGS01JAN2015-APPROVEON01JAN2015-ACTIVATEON01JAN2015.xlsx
+++ b/Mifos Automation Excels/Client/4707-SUBMITSAVINGS01JAN2015-APPROVEON01JAN2015-ACTIVATEON01JAN2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="NewSavingInput" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>clickonnewSaving</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>clickonapproveSaving</t>
-  </si>
-  <si>
-    <t>approve</t>
   </si>
   <si>
     <t>approveddate</t>
@@ -536,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -583,12 +580,12 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>42005</v>
@@ -596,23 +593,23 @@
     </row>
     <row r="7" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3">
         <v>42005</v>
@@ -620,7 +617,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -643,10 +640,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -658,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -669,25 +666,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -698,7 +695,7 @@
         <v>42005</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6">
